--- a/ResultadoEleicoesDistritos/R. A. MADEIRA_RIBEIRA BRAVA.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. MADEIRA_RIBEIRA BRAVA.xlsx
@@ -597,64 +597,64 @@
         <v>4209</v>
       </c>
       <c r="H2" t="n">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="I2" t="n">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="J2" t="n">
-        <v>1663</v>
+        <v>1765</v>
       </c>
       <c r="K2" t="n">
+        <v>7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>454</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31</v>
+      </c>
+      <c r="N2" t="n">
+        <v>293</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>25</v>
+      </c>
+      <c r="S2" t="n">
+        <v>200</v>
+      </c>
+      <c r="T2" t="n">
+        <v>280</v>
+      </c>
+      <c r="U2" t="n">
         <v>15</v>
       </c>
-      <c r="L2" t="n">
-        <v>513</v>
-      </c>
-      <c r="M2" t="n">
-        <v>36</v>
-      </c>
-      <c r="N2" t="n">
-        <v>301</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>30</v>
-      </c>
-      <c r="S2" t="n">
-        <v>154</v>
-      </c>
-      <c r="T2" t="n">
-        <v>297</v>
-      </c>
-      <c r="U2" t="n">
-        <v>20</v>
-      </c>
       <c r="V2" t="n">
-        <v>2781</v>
+        <v>2694</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>2702</v>
+        <v>2728</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
